--- a/Scrum 1/Product Owner Documentation/Feuille de temps Taches01.xlsx
+++ b/Scrum 1/Product Owner Documentation/Feuille de temps Taches01.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catal\OneDrive\Desktop\Learning_to_Code\projet-developpement-applications\projet-developpement-applications\Scrum 1\Product Owner Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078C9EB-18A6-4A76-ACEF-CAE005FE2614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="98" windowWidth="28470" windowHeight="13298"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -177,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,11 +324,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +410,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +462,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,26 +655,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.46484375" style="3"/>
+    <col min="9" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -619,10 +682,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="28.5">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
@@ -630,7 +693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -638,7 +701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
@@ -646,10 +709,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -657,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -680,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -703,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -726,7 +789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" customHeight="1">
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -739,7 +802,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
@@ -751,7 +814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -759,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -767,7 +830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
@@ -775,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
@@ -783,7 +846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -791,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
@@ -799,7 +862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -807,7 +870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -815,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
@@ -827,7 +890,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="47.35" customHeight="1">
+    <row r="29" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>1</v>
       </c>
@@ -839,7 +902,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="47.35" customHeight="1">
+    <row r="30" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -851,7 +914,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="47.35" customHeight="1">
+    <row r="31" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -863,7 +926,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="47.35" customHeight="1">
+    <row r="32" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>4</v>
       </c>
@@ -875,7 +938,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" ht="47.35" customHeight="1">
+    <row r="33" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -887,7 +950,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7" ht="47.35" customHeight="1">
+    <row r="34" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>6</v>
       </c>
@@ -899,7 +962,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="2:7" ht="47.35" customHeight="1">
+    <row r="35" spans="2:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>7</v>
       </c>
@@ -930,24 +993,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
